--- a/src/analysis_examples/circadb/results_jtk/cosinor_10368970_prdm1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10368970_prdm1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.20830253399095633, 0.3206078988075276]</t>
+          <t>[0.20973366249241554, 0.3191767703060684]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.785507380309582e-09</v>
+        <v>1.77452141869594e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>2.785507380309582e-09</v>
+        <v>1.77452141869594e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.25789495639231</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.39215416712557494, 0.45528700376596676]</t>
+          <t>[0.39214886994036413, 0.45529230095117756]</t>
         </is>
       </c>
       <c r="U2" t="n">
